--- a/Team-Data/2007-08/11-25-2007-08.xlsx
+++ b/Team-Data/2007-08/11-25-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -768,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
@@ -783,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>8</v>
@@ -798,10 +865,10 @@
         <v>24</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>2</v>
@@ -819,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -956,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -965,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -992,13 +1059,13 @@
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1126,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>25</v>
@@ -1144,16 +1211,16 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
@@ -1165,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -1212,91 +1279,91 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.167</v>
+        <v>0.182</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="J5" t="n">
-        <v>86.09999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M5" t="n">
         <v>17.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.283</v>
+        <v>0.277</v>
       </c>
       <c r="O5" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="P5" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="R5" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="V5" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21.4</v>
-      </c>
       <c r="AB5" t="n">
-        <v>86.5</v>
+        <v>87.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10</v>
+        <v>-9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>28</v>
@@ -1305,16 +1372,16 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
@@ -1329,34 +1396,34 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT5" t="n">
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -1394,97 +1461,97 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J6" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L6" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.377</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="R6" t="n">
         <v>13.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T6" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V6" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.1</v>
+        <v>-1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>5</v>
@@ -1493,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
         <v>9</v>
@@ -1502,43 +1569,43 @@
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
@@ -1717,10 +1784,10 @@
         <v>3</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -1839,19 +1906,19 @@
         <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
@@ -1863,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
         <v>22</v>
@@ -1872,19 +1939,19 @@
         <v>4</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1899,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -1940,130 +2007,130 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>80.2</v>
+        <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.464</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
       </c>
       <c r="M9" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.356</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.711</v>
+        <v>0.714</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="T9" t="n">
         <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V9" t="n">
         <v>12.4</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>10</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS9" t="n">
         <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>24</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
@@ -2087,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2245,13 +2312,13 @@
         <v>12</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
         <v>22</v>
       </c>
       <c r="AU10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
         <v>5</v>
@@ -2260,22 +2327,22 @@
         <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2400,7 +2467,7 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2409,13 +2476,13 @@
         <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2424,13 +2491,13 @@
         <v>20</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>17</v>
       </c>
       <c r="AT11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2439,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -2486,109 +2553,109 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3</v>
+        <v>86.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.435</v>
       </c>
       <c r="L12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M12" t="n">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>20.1</v>
+        <v>19.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R12" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U12" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.8</v>
+        <v>102.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>2</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
@@ -2597,10 +2664,10 @@
         <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
@@ -2609,25 +2676,25 @@
         <v>10</v>
       </c>
       <c r="AS12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU12" t="n">
         <v>9</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>14</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2636,10 +2703,10 @@
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2764,7 +2831,7 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2788,13 +2855,13 @@
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.538</v>
+        <v>0.583</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
@@ -2880,73 +2947,73 @@
         <v>19.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O14" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="P14" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.779</v>
+        <v>0.783</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>45.1</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="V14" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AG14" t="n">
         <v>11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
@@ -2958,46 +3025,46 @@
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>21</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>13</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>16</v>
-      </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3125,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>16</v>
@@ -3143,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR15" t="n">
         <v>21</v>
@@ -3170,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-5</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
         <v>27</v>
@@ -3307,13 +3374,13 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3337,7 +3404,7 @@
         <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
@@ -3355,16 +3422,16 @@
         <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>5</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
         <v>5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>11</v>
@@ -3504,13 +3571,13 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
         <v>19</v>
@@ -3525,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>8</v>
@@ -3540,13 +3607,13 @@
         <v>27</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3677,7 +3744,7 @@
         <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>15</v>
@@ -3692,7 +3759,7 @@
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
@@ -3710,10 +3777,10 @@
         <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
         <v>15</v>
@@ -3725,13 +3792,13 @@
         <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" t="n">
         <v>26</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="J19" t="n">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.413</v>
+        <v>0.409</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.317</v>
+        <v>0.327</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="P19" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.731</v>
+        <v>0.737</v>
       </c>
       <c r="R19" t="n">
         <v>10.1</v>
@@ -3808,22 +3875,22 @@
         <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="V19" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z19" t="n">
         <v>24.4</v>
@@ -3832,25 +3899,25 @@
         <v>24.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>88.40000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.8</v>
+        <v>-7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,25 +3929,25 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
       </c>
       <c r="AR19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>22</v>
@@ -3889,7 +3956,7 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
         <v>29</v>
@@ -3898,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
         <v>7</v>
@@ -3907,13 +3974,13 @@
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
@@ -4041,16 +4108,16 @@
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4089,13 +4156,13 @@
         <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4235,7 +4302,7 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
@@ -4244,7 +4311,7 @@
         <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS21" t="n">
         <v>11</v>
@@ -4277,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>4</v>
@@ -4453,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4578,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4593,13 +4660,13 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4608,13 +4675,13 @@
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS23" t="n">
         <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>26</v>
@@ -4626,13 +4693,13 @@
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>7.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
@@ -4781,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4805,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
         <v>4</v>
@@ -4817,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
         <v>22</v>
@@ -4984,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
@@ -4996,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>23</v>
@@ -5145,10 +5212,10 @@
         <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5169,16 +5236,16 @@
         <v>20</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -5216,88 +5283,88 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.857</v>
+        <v>0.846</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J27" t="n">
         <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="L27" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M27" t="n">
         <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.408</v>
+        <v>0.395</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="P27" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.774</v>
+        <v>0.758</v>
       </c>
       <c r="R27" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U27" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V27" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF27" t="n">
         <v>2</v>
@@ -5312,28 +5379,28 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5345,25 +5412,25 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="H28" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="O28" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="R28" t="n">
         <v>12</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="H28" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="I28" t="n">
-        <v>38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M28" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="O28" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="P28" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R28" t="n">
-        <v>11.5</v>
-      </c>
       <c r="S28" t="n">
-        <v>32.4</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>45</v>
       </c>
       <c r="U28" t="n">
         <v>20.5</v>
       </c>
       <c r="V28" t="n">
-        <v>17.9</v>
+        <v>18.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X28" t="n">
         <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.9</v>
+        <v>-8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,70 +5555,70 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AU28" t="n">
         <v>16</v>
       </c>
       <c r="AV28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="n">
         <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
         <v>25</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,112 +5665,112 @@
         <v>36.9</v>
       </c>
       <c r="J29" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>17</v>
       </c>
       <c r="P29" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.841</v>
+        <v>0.837</v>
       </c>
       <c r="R29" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V29" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y29" t="n">
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
         <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5715,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
         <v>28</v>
@@ -5727,13 +5794,13 @@
         <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.714</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,46 +5847,46 @@
         <v>39.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.487</v>
+        <v>0.484</v>
       </c>
       <c r="L30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.379</v>
       </c>
       <c r="O30" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P30" t="n">
         <v>30.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
         <v>42.2</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
         <v>17.1</v>
       </c>
       <c r="W30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.8</v>
@@ -5828,22 +5895,22 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>5</v>
@@ -5858,19 +5925,19 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>19</v>
@@ -5909,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
@@ -6022,28 +6089,28 @@
         <v>-0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6052,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>7</v>
@@ -6073,28 +6140,28 @@
         <v>3</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>10</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-25-2007-08</t>
+          <t>2007-11-25</t>
         </is>
       </c>
     </row>
